--- a/data/element_6_data.xlsx
+++ b/data/element_6_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loivngoo/Documents/US Tuan 4/element_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEB25F9-E70A-534E-AED3-BD214E1AAED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5242C74E-6094-1846-86D2-57FA1BAEFB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="740" windowWidth="28040" windowHeight="17040" xr2:uid="{BFA355E6-8494-BD4A-87DA-64E6B874B377}"/>
+    <workbookView xWindow="540" yWindow="740" windowWidth="28040" windowHeight="17000" xr2:uid="{BFA355E6-8494-BD4A-87DA-64E6B874B377}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="717">
   <si>
     <t>[hqcheck.ru]|Live|4744780157728510|06|2026|972|Carina Kang|Carina|Kang|6106 Sandstone Ct|CLIFTON|VA|20124|US|Kang.carina@gmail.com|||US</t>
   </si>
@@ -380,9 +380,6 @@
     <t>[hqcheck.ru]|Live|4430473044350677|01|2023|683|Christopher Ruiz|Christopher|Ruiz|6330 bell station road |Glenn dale |Maryland |20769|US|Christopher.Ruiz8@yahoo.com|||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4839504708951546|04|2022|444|Timothy  Tully|Timothy |Tully|8 Rigby Street|Yonkers |New York|10704|US|labor79@optonline.net|9142624952||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4266841595117357|12|2023|948|Mariam Snall|Mariam|Snall|1724 High Bridge Rd|Lancaster |KY|40444|US|Mariam-2000@hotmail.com|8599407637||US</t>
   </si>
   <si>
@@ -401,15 +398,9 @@
     <t>[hqcheck.ru]|Live|4100390059565123|10|2025|376|Athene Archer|Athene|Archer|4446 W Crystal Ranch Place|Marana|AZ|85658|US|athene.archer@outlook.com|5208917424||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4147180198821387|07|2024|777|DAVID  EARLEY|David|Earley|1710 Wallace St|Philadelphia |Pennsylvania |19130|US|dearley68@yahoo.com|13026908704|1994-7-5|US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4427560340209295|02|2025|093|KOLTON B TAYLOR|Kolton|Taylor|1132 Turkey Foot Rd |Lexington |KY |40502 |US|Koltontaylor96@gmail.com|2173778825||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4490520005038431|02|2023|623|John  Paynter|John |Paynter|2185 Mount Sterling Rd|Winchester |Ky|40391|US|Jpaynter00@gmail.com|8597712310||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|5175465385834224|02|2025|311|Natalya Da Silva|Natalya|Da Silva|15430|Southgate|MI|48195|US|dasilvanatalyaa@gmail.com|2486572421||US</t>
   </si>
   <si>
@@ -485,9 +476,6 @@
     <t>[hqcheck.ru]|Live|4147400290577897|09|2025|398|Karyl Niemi|Karyl|Niemi|103 Waterbridge Lane|Jupiter|FL|33458|US|Karyl.niemi@gmail.com|7349044940||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4400669926781691|12|2023|215|Alisha  Turak |Alisha |Turak |3424 Vine st|Demver|Colorado |80205|US|Ajturak@gmail.com|5303042327|1990-5-|US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4356430098936124|04|2023|006|Yiram Kean|Yiram|Kean|8581 NW 49 Street|Lauderhill|Florida|33351|US|Gigikean@gmail.com|9547099392||US</t>
   </si>
   <si>
@@ -500,18 +488,12 @@
     <t>[hqcheck.ru]|Live|4705040502207323|06|2023|206|Jessica Flores|Jessica|Flores|425 N. sierra madre blvd.|pasadena|CA|91107|US|jessicaflores520@yahoo.com|6267227634||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4100390146554429|10|2024|848|Andrea  Wanlass |Andrea |Wanlass |1071 E. Ivanhoe St. |Gilbert|AZ|85295|US|andreawanlass@gmail.com|4802982977||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|5189410114274346|05|2022|051|Amy De La O|Amy|De La O|6145 E Sunny Dr|Tucson|AZ|85712|US|adelao2011@yahoo.com|6028592007||US</t>
   </si>
   <si>
     <t>[hqcheck.ru]|Live|4552250095390626|08|2023|020|Ashley Pena|Ashley|Pena|2932 Feng Way|Clarksville|TN|37040|US|limensalt87@gmail.com|9319805852||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4100390173776978|02|2025|978|Jacob Hoskins|Jacob|Hoskins|112  High Hope Lane|Georgetown|KY|40324|US|Ozzyfan32@gmail.com|5023165136||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4147202363901420|07|2025|855|Chase Cawthron|Chase|Cawthron|4025 DUVAL ROAD|AUSTIN|TX|78759|US|cccawthron09@yahoo.com|4324131764|1991-4-29|US</t>
   </si>
   <si>
@@ -572,18 +554,12 @@
     <t>[hqcheck.ru]|Live|4147098373197680|11|2023|722|Harriet Dark|Harriet|Dark|1626 Mendocino st |Richmond |CA|94804|US|harrietd93@gmail.com|3012725210||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4060320356353145|08|2025|322|JAMIE  ESHLEMAN|Jamie|Eshleman|551 Pearl St. |Denver|CO|80203|US|jamie.t.eshleman@gmail.com|7073036176|1984-9-11|US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4833160199422905|02|2025|126|Chris Henken|Chris|Henken|772 Ninth Ave|New York|New York|10019|US|Chrishenken@gmail.com|5167083229||US</t>
   </si>
   <si>
     <t>[hqcheck.ru]|Live|4607180102829032|02|2023|026|April L Masters|April|Masters|1100 Harris Ferry Rd|Irvine|KY|40336|US|aprilmasters99@gmail.com|8592273083||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4029445195686221|04|2023|536|Ashlee  Sadowski |Ashlee |Sadowski |169 Flowering Grove Lane|Mooresville|NC|28115|US|Ashleesadowski@gmail.com|5164481441||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4765162017813010|12|2022|447|Amanda Seabolt|Amanda|Seabolt|27720 Miller Lane |Elkmont |Alabama |35620|US|seaboltamanda@yahoo.com|2564310905||US</t>
   </si>
   <si>
@@ -659,9 +635,6 @@
     <t>[hqcheck.ru]|Live|4783400001487815|06|2024|621|Jenna Potter|Jenna|Potter|6 Long Acre Court|Medford|New York|11763|US|jennapotter1712@gmail.com|6316822155||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4147202268472683|08|2024|328|Jennifer  Steiger |Jennifer |Steiger |141 Grange street |Franklin square |NY|11010|US|Supersteiger@yahoo.com|5167548250||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4661880072889675|05|2024|309|Gabrielle McKoy|Gabrielle|McKoy|1334 Pressley Road|Charlotte|North Carolina|28217|US|gabymckoy@hotmail.com|7044676704||US</t>
   </si>
   <si>
@@ -671,9 +644,6 @@
     <t>[hqcheck.ru]|Live|5460600001455509|02|2025|914|Tia Long|Tia|Long|575 Appleway|Saint Thomas|PA|17252|US|ttimmons575@comcast.net|17173725608||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|371710700895001|07|2022|8976|Nick  Provenzano|Anita |Provenzano|116 Albany Blvd|Atlantic Beach|NY|11509|US|efproanita@yahoo.com|5169745683||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4744810078300162|06|2023|907|Kelly Cook|Kelly|Cook|200 Madison st|Nashville|TN|37208|US|Kellywiu81@msn.com|6303417811||US</t>
   </si>
   <si>
@@ -701,18 +671,9 @@
     <t>[hqcheck.ru]|Live|5424181443956979|09|2023|145|Olivia Church|Olivia|Church|792 North 630 West|Tooele|Utah|84074|US|Olivia.r.church@gmail.com|5173660197||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4266841393812126|12|2023|065|Lisa  Weatherly|Lisa |Weatherly|4777 Memorial Dr|The Colony|Texas|75056|US|lisa.l.weatherly@gmail.com|4692239541||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4447962423744139|09|2022|746|Calenna  Smith|Calenna |Smith|5128 Sassafras rd|Columbus |Ohio|43229|US|calennasmith@yahoo.com|6148430679||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4430410047314581|07|2022|115|Betty Hawkins|Betty|Hawkins|449 KILPATRICK CT|LEXINGTON|KY|40511|US|Byhawkins@hotmail.com|8593681346||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|5156767925815354|04|2023|902|Justin  Fischer |Justin |Fischer |922 9th Street |West Babylon |Ny|11704|US|Jfischer0713@gmail.com|6312355168||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|5189410017227920|10|2023|861|Edward Matias|Edward|Matias|1617 N Poinsettia Pl Apt 303|Los Angeles|CA|90046|US|elmatias@aol.com|3238985922|1975-10-21|US</t>
   </si>
   <si>
@@ -737,9 +698,6 @@
     <t>[hqcheck.ru]|Live|4266841298330885|07|2025|358|Laura Beinlich|Laura|Beinlich|291 Wickshire Drive|East Meadow|NY|11554|US|Lmbeinlich@gmail.com|5162423064||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4266841585199225|09|2023|766|Carrie  Homme |Carrie |Homme |1824 Jordan rd|Chapmansboro |TN|37035|US|Carriehomme@gmail.com|9202489069||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|5178059167332684|12|2023|762|James Bush|James|Bush|17201 Wyndchase Circle |Franklin |Tn|37067|US|Believe92281@gmail.com|6154248096||US</t>
   </si>
   <si>
@@ -755,9 +713,6 @@
     <t>[hqcheck.ru]|Live|4347690237000544|04|2022|677|Natalie Rafeh|Natalie|Rafeh|3580 NW 85th Ct|Doral|Florida|33122|US|nataliesrh@hotmail.com|4076830278||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4474941003512781|04|2024|450|Veronica  PEDRANI-Honicky |Veronica |PEDRANI-Honicky |32408 Crown Valley Road|Acton|CA|93510|US|Vrpedrani@gmail.com|8182387993||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|5254750032838379|04|2024|160|Maria Hasbany|Maria|Hasbany|3509 Hillbrook Street|Dallas|TX|75214|US|mhasbany@yahoo.com|2142322123|1961-12-26|VI</t>
   </si>
   <si>
@@ -776,9 +731,6 @@
     <t>[hqcheck.ru]|Live|5524335442383275|06|2024|633|Sandi Wemigwase|Sandi|Wemigwase|1680 Bear Creek Lane|Petoskey|MI|49770|US|Swemigwase@yahoo.com|6474553257||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4862369050591732|06|2022|618|Francisco  Padilla|Wendy|Padilla|10949 S Buffalo Ave|Chicago|Illinois|60617|US|wmarti1991@gmail.com|7733199932|1991-8-29|US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4147180120217837|08|2023|891|Susan Hornbuckle|Susan|Hornbuckle|758 Pine Mountain Road|Remlap|Al|35133|US|shornbuckle@blountboe.net|2058377137||US</t>
   </si>
   <si>
@@ -791,9 +743,6 @@
     <t>[hqcheck.ru]|Live|371249710678008|08|2024|0376|Sarah Blatsiotis|Sarah|Blatsiotis|3648 sheridge drive |Sherman oaks |California |91403|US|Sarahk1912@yahoo.com|8184191417||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4867960343789854|10|2024|279|Mildred  Williams |Mildred |Williams |9129 Pine Springs Dr|Louisville |KY|40291|US|millyawilliams2016@gmail.com|5024182442||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4266841632698344|05|2024|665|Tricia Barto|Tricia|Barto|6N440 Garden Avenue|Roselle|IL|60172|US|tbarto12@yahoo.com|6304394503|1997-11-6|US</t>
   </si>
   <si>
@@ -818,15 +767,9 @@
     <t>[hqcheck.ru]|Live|4000222000754699|11|2022|281|Jenny Siddiqi |Jenny|Siddiqi |715 eton court |Libertyville|Il|60048|US|Jennystathis@gmail.com|8189148698||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4147099837513678|03|2024|145|Kelly  Strauch|Kelly |Strauch|723 Franklin Ave|Palmerton |PA|18071|US|kstrauch@ptd.net|6105703228||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4060686013828210|02|2026|632|Ana Aragon Sierra|Ana|Aragon Sierra|3220 E Jerome Ave|Mesa|AZ|85204|US|aragon_ana@yahoo.com|4803530861||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4000222260927696|03|2025|810|Michelle  Flores |Michelle |Flores |6466 aether st|Las vegas|Nv|89148|US|Mickeyj102812@gmail.com|7027936166||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4147400226878724|08|2023|939|Robert Marsalona|Robert|Marsalona|244 Bayview Ave|Massapequa|New York|11758|US|aeroinsane71@gmail.com|5164689738||US</t>
   </si>
   <si>
@@ -839,9 +782,6 @@
     <t>[hqcheck.ru]|Live|4117766003319355|03|2026|694|Daniel McCarthy|Daniel|McCarthy|718 BROAD ST|MERIDEN|CT|06450-4371|US|lenorules1950@gmail.com|8603314254||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|5599200002209627|09|2025|953|Elyse  Martin |Elyse |Martin |1500 Baseline Hwy |Charlotte |Michigan |48813|US|Elyse_wilcox@yahoo.com|8108340445||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|5175461666607793|10|2025|767|Michelle Berry|Michelle|Berry|2560 N Moreland Blvd|Shaker Heights|OH|44120|US|m3mills@gmail.com|6143097339||US</t>
   </si>
   <si>
@@ -854,9 +794,6 @@
     <t>[hqcheck.ru]|Live|5424320200578077|06|2026|330|Renee Pontsler|Renee|Pontsler|3 Apache Court|Loveland|OH|45140|US|Weener25@aol.com|5137604931||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4862367779040460|11|2023|535|Kathie  Piette|Kathie |Piette|165 W. Camino Del Emperador|Vail|AZ|85641-2032|US|Kathiepiette@gmail.com|52002711745||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4147202371090117|09|2027|686|Kelsey Vandermeulen |Kelsey|Vandermeulen |7511 Camino Manor|Boerne|TX|78015|US|kwhitten1399@gmail.com|2104789932||US</t>
   </si>
   <si>
@@ -950,9 +887,6 @@
     <t>[hqcheck.ru]|Live|4305728767992423|03|2024|414|Belinda Carniglia|Belinda|Carniglia|3978 Keeneland Court |Duluth|Georgia|30096|US|belindaann.1@juno.com|4702554025||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4275690022281214|07|2024|596|DAKOTA  GARRETT|Dakota|Garrett|144 Edwards Rd|Nicholasville|KY|40356|US|Dakota_garrett12@yahoo.com|8596084371||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4833160142743746|09|2024|334|Irma Salazar|Irma|Salazar|12811 Cantara st|North Hollywood |CA|91605|US|Irmasalazar019@gmail.com|3233167478||US</t>
   </si>
   <si>
@@ -980,9 +914,6 @@
     <t>[hqcheck.ru]|Live|5538110005672420|11|2022|564|Lori Harrell|Lori|Harrell|225 Otter Creek Road |Sopchoppy |Florida |32358|US|Llagh1020@aol.com|8505192530||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4815820304583360|06|2024|031|Diane  Villegas |Diane |Villegas |314 south Inglewood Avenue |Inglewood |California |90301|US|dianevillegas89@gmail.com|3105906642|1989-10-5|US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4147180291654909|05|2024|223|Sarah Ritthaler|Sarah|Ritthaler|2937 E Osborn Rd|Phoenix |AZ|85016|US|sarahjritthaler@yahoo.com|4805106914||US</t>
   </si>
   <si>
@@ -1067,9 +998,6 @@
     <t>[hqcheck.ru]|Live|4003449046611933|01|2025|766|Daniela Nazario|Daniela|Nazario|5311 Southwest 163rd Court|Miami|FL|33185|US|dnaza003@fiu.edu|7863029122|1996-7-3|US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4147202338156175|01|2027|274|Zachary  Shuping|Zachary |Shuping|164 Blue Heron Place|Lexington|Kentucky|40511|US|zshuping89@gmail.com|8597058231||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4147202472132420|12|2025|704|Jessica Rudd|Jessica|Rudd|543 N Cherry|Mesa|Arizona|85201|US|Jessicarudd03@gmail.com|4804665013||US</t>
   </si>
   <si>
@@ -1079,9 +1007,6 @@
     <t>[hqcheck.ru]|Live|5129925196536216|06|2023|537|Richard Hofmann |Ricky|Hofmann|606 freehold rd|Jackson|NJ|08527|US|Ricky.flipzco@gmail.com|||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4388576097615671|12|2023|433|Deanna  LaChappell |Deanna |LaChappell |8327 Chelsea Ln |Woodridge |IL|60517|US|Deanna.LaChappell@yahoo.com|6305367598||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|379837578847004|10|2024|7531|Julie Parra|Julie|Parra|1457 Hyde St.|San Francisco|California|94109|US|juliekparra@gmail.com|9165319698|1989-8-7|US</t>
   </si>
   <si>
@@ -1097,12 +1022,6 @@
     <t>[hqcheck.ru]|Live|4859530180753915|07|2024|385|Adrianne Hamamoto|Adrianne|Hamamoto|12327 W Picerne Dr|Surprise|AZ|85378|US|ahamamoto123@gmail.com|5203089713||CO</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4266841448715316|11|2027|039|Rosemary  Jones|Rosemary |Jones|2090 Spruce Street|Wantagh|NY|11793|US|Jonez97@yahoo.com|5168096536||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|372823168441025|10|2024|3024|Linda  Bruzzese|Linda |Bruzzese|2 Split Rock Road|Pelham|NY|10803|US|BruzzeseL@aol.com|9177977746||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4366182262568419|10|2023|147|Sandy Magnus|Sandy|Magnus|7185 Pine Bridge Ct|Las Vegas|NV|89148|US|smagnus67@gmail.com|9258993862||US</t>
   </si>
   <si>
@@ -1118,9 +1037,6 @@
     <t>[hqcheck.ru]|Live|4695965056505338|05|2022|342|Jamario Wallace|Jamario|Wallace|111 Crosby Circle|Greenville|SC|29605|US|wallacejw1007@hotmail.com|3187516591||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4093110015554493|09|2024|055|Lindsey  Smith |Lindsey |Smith |1001 Windjammer Ct |Churchton |MD|20733|US|Linny31386@yahoo.com|4439957732||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4266841547929297|11|2025|591|Josie Speights|Josie|Speights|2606 peverell lane|Charlotte|Nc|28270|US|Josie.speights@gmail.com|7049681355||US</t>
   </si>
   <si>
@@ -1193,9 +1109,6 @@
     <t>[hqcheck.ru]|Live|5424324584885124|08|2024|187|Kyle Burke|Kyle|Burke|96b oceola ave|nashville|TN|37209|US|kdb887@gmail.com|9045054458||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4266841661905917|10|2025|541|Eugene  Sarchiapone|Eugene |Sarchiapone|1621 East Drive|Merrick|NY|11566|US|marshadedwards@yahoo.com|5166336280||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4833120148309736|06|2026|182|Desiree Rodriguez|Desiree|Rodriguez|3681 E Sandpiper drive|Boynton Beach|FL|33436|US|desiree.martinezd@gmail.com|7343520441||US</t>
   </si>
   <si>
@@ -1208,9 +1121,6 @@
     <t>[hqcheck.ru]|Live|4060320346602585|05|2022|041|Nathanael Nash|Nathanael|Nash|4700 North Racine Avenue|Chicago |IL |60640|US|nathanaelanash@gmail.com|5748072058|1992-2-23|US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4056100106347514|04|2022|333|Sherri  Stovall|Sherri |Stovall|2140 Kuhio Ave|Honolulu |HI|96815|US|SherriReneeRN@aol.com|2767329176||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|5312600123173394|03|2023|592|Bryan Reveron|Bryan|Reveron|3916 Heathcote dr|Orlando|FL|32829|US|bryrev99@gmail.com|||US</t>
   </si>
   <si>
@@ -1253,12 +1163,6 @@
     <t>[hqcheck.ru]|Live|4417124228653611|12|2024|149|GREG TUFFORD|GREG|TUFFORD|1405 OXFORD RD|BERKLEY|MI|48072-2073|US|gtufford@wowway.com|2485440950||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4839500598491676|02|2024|439|Ryan  Gorman|Ryan |Gorman|38 Wedgwood Dr|Coram|NY|11727|US|supergorman1@gmail.com|6315687907||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4164900109081229|09|2025|972|nancy  guzman|nancy |guzman|5953 gardenia ave |long beach |ca |90807|US|gnancybtb@gmail.com|5623136233||US</t>
-  </si>
-  <si>
     <t>[hqcheck.ru]|Live|4207670234496456|11|2024|644|Dionne Y Ramsey|Dionne|Ramsey|471 Chestnut Street|Ridgefield|NJ|07657|US|dramsey73@gmail.com|6464093236||US</t>
   </si>
   <si>
@@ -1280,43 +1184,1009 @@
     <t>[hqcheck.ru]|Live|5178058069709767|07|2022|712|Craig Hixon|Craig|Hixon|5511 Twilight Road|Roanoke|VA|24019|US|chixon@mcps.org|5407979423||US</t>
   </si>
   <si>
-    <t>[hqcheck.ru]|Live|4347690243897933|07|2025|632|Joshua  Colón |Joshua |Colón ||PORT SAINT LUCIE|FL|34952|US|colon.a.joshua@gmail.com|7726071447||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4147180292020191|11|2023|686|Tarek  Badraoui |Tarek |Badraoui |907 Woodmere Cir|ORMOND BEACH|FL|32174|US|jetskiconnection@gmail.com|||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4867966905205825|10|2024|635|Alex  Minero|Alex |Minero||KENT|WA|98042|US|Alexminero99@outlook.com|||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|5538230000923402|03|2024|486|Justin  Berry|Justin |Berry||SOMERVILLE|MA|02144|US|Jsberry5248@gmail.com|||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4435890040377195|05|2025|607|Hunter  Deponceau |Hunter |Deponceau ||HAMBURG|NY|14075|US|Deponceau314@outlook.com|||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4744800025661618|04|2022|995|Shawn  Burns|Shawn |Burns||COULEE DAM|WA|99116|US|Replikantmedia@gmail.com|4075381801||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4147097745036444|11|2024|202|Simone  Jacobson |Simone |Jacobson ||PURCHASE|NY|10577|US|Simone.g.jacobson@gmail.com|||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4147180191131743|09|2023|850|Rich  Ahlgren|Rich |Ahlgren||LAND O LAKES|FL|34638|US|rich11390@verizon.net|18139499392||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4672860000116588|03|2024|738|Amy  Taykowski |Amy |Taykowski |PO Box 1142 |Kalkaska |MI |49646|US|lovealways2393@yahoo.com|2314992962||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4266841478880725|06|2024|780| Beatrice  Galaz|Beatrice |Galaz |6141 e Calle pantano|Anaheim |Ca|92807|US|Bea.galaz@gmail.com|7143653143||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|5146080800235695|09|2022|842|Kelly  Wheeler|Kelly |Wheeler|505 Silver Springs|Helotes|TX|78023|US|kellywheeler67@yahoo.com|2103643160||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4147202370813923|09|2027|781|Nathan  Wachira |Nathan |Wachira |8850 Cypress Hammock Dr|TAMPA|FL|33614|US|Nwnate0@gmail.com|8133941505||US</t>
-  </si>
-  <si>
-    <t>[hqcheck.ru]|Live|4275690022139776|10|2023|409|Virgil  Reynolds|Virgil |Reynolds|4769 Military Pike|Lexington |Kentucky |40513|US|shelby1223@hotmail.com|8593512014||US</t>
+    <t>[hqcheck.ru]|Live|4839504708951546|04|2022|444|Timothy  Tully|Timothy |Tully|8 Rigby Street|Yonkers |New York|10704|US|labor79@optonline.net|9142624952||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147180198821387|07|2024|777|DAVID  EARLEY|David|Earley|1710 Wallace St|Philadelphia |Pennsylvania |19130|US|dearley68@yahoo.com|13026908704|1994-7-5|US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4490520005038431|02|2023|623|John  Paynter|John |Paynter|2185 Mount Sterling Rd|Winchester |Ky|40391|US|Jpaynter00@gmail.com|8597712310||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400669926781691|12|2023|215|Alisha  Turak |Alisha |Turak |3424 Vine st|Demver|Colorado |80205|US|Ajturak@gmail.com|5303042327|1990-5-|US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4100390146554429|10|2024|848|Andrea  Wanlass |Andrea |Wanlass |1071 E. Ivanhoe St. |Gilbert|AZ|85295|US|andreawanlass@gmail.com|4802982977||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4100390173776978|02|2025|978|Jacob Hoskins|Jacob|Hoskins|112  High Hope Lane|Georgetown|KY|40324|US|Ozzyfan32@gmail.com|5023165136||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4060320356353145|08|2025|322|JAMIE  ESHLEMAN|Jamie|Eshleman|551 Pearl St. |Denver|CO|80203|US|jamie.t.eshleman@gmail.com|7073036176|1984-9-11|US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4029445195686221|04|2023|536|Ashlee  Sadowski |Ashlee |Sadowski |169 Flowering Grove Lane|Mooresville|NC|28115|US|Ashleesadowski@gmail.com|5164481441||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202268472683|08|2024|328|Jennifer  Steiger |Jennifer |Steiger |141 Grange street |Franklin square |NY|11010|US|Supersteiger@yahoo.com|5167548250||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|371710700895001|07|2022|8976|Nick  Provenzano|Anita |Provenzano|116 Albany Blvd|Atlantic Beach|NY|11509|US|efproanita@yahoo.com|5169745683||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4266841393812126|12|2023|065|Lisa  Weatherly|Lisa |Weatherly|4777 Memorial Dr|The Colony|Texas|75056|US|lisa.l.weatherly@gmail.com|4692239541||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4447962423744139|09|2022|746|Calenna  Smith|Calenna |Smith|5128 Sassafras rd|Columbus |Ohio|43229|US|calennasmith@yahoo.com|6148430679||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5156767925815354|04|2023|902|Justin  Fischer |Justin |Fischer |922 9th Street |West Babylon |Ny|11704|US|Jfischer0713@gmail.com|6312355168||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4266841585199225|09|2023|766|Carrie  Homme |Carrie |Homme |1824 Jordan rd|Chapmansboro |TN|37035|US|Carriehomme@gmail.com|9202489069||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4474941003512781|04|2024|450|Veronica  PEDRANI-Honicky |Veronica |PEDRANI-Honicky |32408 Crown Valley Road|Acton|CA|93510|US|Vrpedrani@gmail.com|8182387993||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4862369050591732|06|2022|618|Francisco  Padilla|Wendy|Padilla|10949 S Buffalo Ave|Chicago|Illinois|60617|US|wmarti1991@gmail.com|7733199932|1991-8-29|US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4867960343789854|10|2024|279|Mildred  Williams |Mildred |Williams |9129 Pine Springs Dr|Louisville |KY|40291|US|millyawilliams2016@gmail.com|5024182442||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147099837513678|03|2024|145|Kelly  Strauch|Kelly |Strauch|723 Franklin Ave|Palmerton |PA|18071|US|kstrauch@ptd.net|6105703228||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4000222260927696|03|2025|810|Michelle  Flores |Michelle |Flores |6466 aether st|Las vegas|Nv|89148|US|Mickeyj102812@gmail.com|7027936166||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5599200002209627|09|2025|953|Elyse  Martin |Elyse |Martin |1500 Baseline Hwy |Charlotte |Michigan |48813|US|Elyse_wilcox@yahoo.com|8108340445||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4862367779040460|11|2023|535|Kathie  Piette|Kathie |Piette|165 W. Camino Del Emperador|Vail|AZ|85641-2032|US|Kathiepiette@gmail.com|52002711745||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4275690022281214|07|2024|596|DAKOTA  GARRETT|Dakota|Garrett|144 Edwards Rd|Nicholasville|KY|40356|US|Dakota_garrett12@yahoo.com|8596084371||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4815820304583360|06|2024|031|Diane  Villegas |Diane |Villegas |314 south Inglewood Avenue |Inglewood |California |90301|US|dianevillegas89@gmail.com|3105906642|1989-10-5|US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202338156175|01|2027|274|Zachary  Shuping|Zachary |Shuping|164 Blue Heron Place|Lexington|Kentucky|40511|US|zshuping89@gmail.com|8597058231||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4388576097615671|12|2023|433|Deanna  LaChappell |Deanna |LaChappell |8327 Chelsea Ln |Woodridge |IL|60517|US|Deanna.LaChappell@yahoo.com|6305367598||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4266841448715316|11|2027|039|Rosemary  Jones|Rosemary |Jones|2090 Spruce Street|Wantagh|NY|11793|US|Jonez97@yahoo.com|5168096536||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|372823168441025|10|2024|3024|Linda  Bruzzese|Linda |Bruzzese|2 Split Rock Road|Pelham|NY|10803|US|BruzzeseL@aol.com|9177977746||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4093110015554493|09|2024|055|Lindsey  Smith |Lindsey |Smith |1001 Windjammer Ct |Churchton |MD|20733|US|Linny31386@yahoo.com|4439957732||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4266841661905917|10|2025|541|Eugene  Sarchiapone|Eugene |Sarchiapone|1621 East Drive|Merrick|NY|11566|US|marshadedwards@yahoo.com|5166336280||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4056100106347514|04|2022|333|Sherri  Stovall|Sherri |Stovall|2140 Kuhio Ave|Honolulu |HI|96815|US|SherriReneeRN@aol.com|2767329176||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4839500598491676|02|2024|439|Ryan  Gorman|Ryan |Gorman|38 Wedgwood Dr|Coram|NY|11727|US|supergorman1@gmail.com|6315687907||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4164900109081229|09|2025|972|nancy  guzman|nancy |guzman|5953 gardenia ave |long beach |ca |90807|US|gnancybtb@gmail.com|5623136233||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4347690243897933|07|2025|632|Joshua  Colón |Joshua |Colón ||PORT SAINT LUCIE|FL|34952|US|colon.a.joshua@gmail.com|7726071447||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147180292020191|11|2023|686|Tarek  Badraoui |Tarek |Badraoui |907 Woodmere Cir|ORMOND BEACH|FL|32174|US|jetskiconnection@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4867966905205825|10|2024|635|Alex  Minero|Alex |Minero||KENT|WA|98042|US|Alexminero99@outlook.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5538230000923402|03|2024|486|Justin  Berry|Justin |Berry||SOMERVILLE|MA|02144|US|Jsberry5248@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4435890040377195|05|2025|607|Hunter  Deponceau |Hunter |Deponceau ||HAMBURG|NY|14075|US|Deponceau314@outlook.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4744800025661618|04|2022|995|Shawn  Burns|Shawn |Burns||COULEE DAM|WA|99116|US|Replikantmedia@gmail.com|4075381801||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147097745036444|11|2024|202|Simone  Jacobson |Simone |Jacobson ||PURCHASE|NY|10577|US|Simone.g.jacobson@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147180191131743|09|2023|850|Rich  Ahlgren|Rich |Ahlgren||LAND O LAKES|FL|34638|US|rich11390@verizon.net|18139499392||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4672860000116588|03|2024|738|Amy  Taykowski |Amy |Taykowski |PO Box 1142 |Kalkaska |MI |49646|US|lovealways2393@yahoo.com|2314992962||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4266841478880725|06|2024|780| Beatrice  Galaz|Beatrice |Galaz |6141 e Calle pantano|Anaheim |Ca|92807|US|Bea.galaz@gmail.com|7143653143||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5146080800235695|09|2022|842|Kelly  Wheeler|Kelly |Wheeler|505 Silver Springs|Helotes|TX|78023|US|kellywheeler67@yahoo.com|2103643160||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202370813923|09|2027|781|Nathan  Wachira |Nathan |Wachira |8850 Cypress Hammock Dr|TAMPA|FL|33614|US|Nwnate0@gmail.com|8133941505||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4275690022139776|10|2023|409|Virgil  Reynolds|Virgil |Reynolds|4769 Military Pike|Lexington |Kentucky |40513|US|shelby1223@hotmail.com|8593512014||US</t>
+  </si>
+  <si>
+    <t>|CHICAGO|IL|60647|US|kat.m.oconnor@gmail.com|||US | alphacheck.us</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|371730230203005|10|2022|1912|Brian Stotler|Brian|Stotler||ARLINGTON|VA|22204|US|brian.stotler@wes-corp.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400669364288522|01|2023|898|Theodore  Broecker|Theodore |Broecker||ODESSA|FL|33556|US|Tjbroecker@icloud.com|8134180746||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4430473071340138|12|2023|481|Lara Pankowski|Lara|Pankowski||RESTON|VA|20194|US|Larapankowski@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5379931005352651|11|2023|888|Bernardo Santiago|Bernardo|Santiago||LAKE VILLA|IL|60046|US|Bernardo.Santiago77@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400661203146573|06|2025|308|Nora Mangrum|Nora|Mangrum||LITTLETON|CO|80130|US|noramangrum@hotmail.com|7707136597||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5156768506288037|09|2024|342|James Braddock|James|Braddock||CHICAGO|IL|60610|US|Jamesbraddock17@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5524860677383310|05|2026|898|Linda Stanziola|Linda|Stanziola||NEW HYDE PARK|NY|11040|US|ldmunroe@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4054285037782111|08|2022|757|John Lewey|John|Lewey||BASTROP|TX|78602|US|jack@sinassist.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5523930016473857|10|2022|150|Kristin  Jordan|Kristin |Jordan||NEW PORT RICHEY|FL|34654|US|kristinjordan16@gmail.com|7272437390||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4388576140051999|12|2025|278|Trina Chambers|Trina|Chambers||LITTLETON|CO|80129|US|trinarchambers@gmail.com|3038750919||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|379844136201005|06|2026|3422|Christopher Gregory|Christopher|Gregory||CEDAR PARK|TX|78613|US|cgreg27@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4347690013433646|11|2024|827|Veronica  Nickels |Veronica |Nickels ||PORT RICHEY|FL|34668|US|binky51@yahoo.com|3309048376||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4262072941988853|11|2023|886|Ashley Batts|Ashley|Batts||NEW PORT RICHEY|FL|34653|US|abatts91@gmail.com|7277715941||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4388576140993463|01|2026|901|Amy Hoff|Amy|Hoff||HOUSTON|TX|77035|US|ashoff79@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4347690242554246|03|2025|287|Gregory Allison|Gregory|Allison||OCALA|FL|34476|US|gregdallison@hotmail.com|3526150955||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|371310249452016|10|2023|5186|Tanner Zielinski|Tanner|Zielinski||NEW PORT RICHEY|FL|34655|US|Tanner.zielinski@curaleaf.com|8134797069||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4240020170393482|02|2024|261|Ebonie Evans|Ebonie|Evans||CLEARWATER|FL|33756|US|Susieq32004@yahoo.com|7272548110||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4305728788460525|06|2023|106|Sandra Clingensmith|Sandra|Clingensmith||VENICE|FL|34293|US|sandyclingensmith@rocketmail.com|2073322303||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5312600044255817|12|2023|585|Pamela Pepin|Pamela|Pepin||CLEARWATER|FL|33759|US|ppepin2012@gmail.com|18148899387||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4000222014173225|12|2022|878|Brittany Dickson|Brittany|Dickson||PLEASANT VIEW|TN|37146|US|maura0525@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4435890039982948|11|2024|848|Tristin Roefs|Tristin|Roefs||UNADILLA|NY|13849|US|twroefs@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4744780063517684|09|2022|735|Patrick Haly|Patrick|Haly||TAMPA|FL|33611|US|p.haly1986@yahoo.com|17573388326||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4366182297766137|09|2023|056|Mike Metesh|Mike|Metesh||WASHINGTON|DC|20003|US|dagrizbears@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4158230017647673|02|2025|721|Chandler Melchior|Chandler|Melchior||NARVON|PA|17555|US|melchiorchandler@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5218760047119967|07|2023|246|Paul LeBlanc|Paul|LeBlanc||DOWNERS GROVE|IL|60515|US|ploxtx@sbcglobal.net|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147400283620811|06|2025|190|Katie Noel|Katie|Noel||BAILEY|CO|80421|US|katielynn2017@outlook.com|7209992994||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4482330013888219|04|2022|246|Matt  Bowen|Matt |Bowen||FLEMINGTON|NJ|08822|US|mbowen1312@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4000222302192150|05|2025|176|Anthony Gauthier|Anthony|Gauthier||VIRGINIA BEACH|VA|23454|US|Fliprider3217@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202453074963|06|2025|991|Hannah Shapiro|Hannah|Shapiro||WASHINGTON|DC|20002|US|Hdshap@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4003449222527093|09|2022|627|Mark Fortin|Mark|Fortin||CUMBERLAND CENTER|ME|04021|US|markf@fortinconstruction.com|2075768568||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400667743501573|02|2025|083|Travis Santo|Travis|Santo||BRANDON|FL|33510|US|travisimo9@yahoo.com|9048618821||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4701033294117739|10|2022|239|Dawn Parsley|Dawn|Parsley||BRANDON|FL|33511|US|dawnparsley70@gmail.com|8133359916||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5213071001915761|12|2025|893|alan saunders|alan|saunders||BONITA SPRINGS|FL|34135|US|alannumbereight@aol.com|2398108932||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4758246520723797|10|2024|812|Nicole  Snyder|Nicole |Snyder||OGDEN|UT|84401|US|angieshellabarger@gmail.com|8016444326||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5100040015198330|10|2022|143|Anthony Taylor|Anthony|Taylor||WASHINGTON|DC|20024|US|tonytayloronline@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5199550014883684|07|2022|510|Sean  Smiley|Sean |Smiley||FREDONIA|NY|14063|US|seanmsmiley@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4388540069828472|01|2024|669|Jill Marney|Jill|Marney||VIENNA|VA|22182|US|jillmarney@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4357915101253391|11|2024|353|Michael Hutchison|Michael|Hutchison||THE VILLAGES|FL|32163|US|mwhutch91@gmail.com|7346585626||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4834801613536163|03|2025|283|Dustin Mathis|Dustin|Mathis||WINTHROP|WA|98862|US|dustingmathis@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5156767766564129|08|2025|827|Antonio Miles|Antonio|Miles||TAMPA|FL|33617|US|antonio.miles70@gmail.com|8137531931||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4266841672460456|03|2026|598|Natalie Martinez|Natalie|Martinez||BELLEAIR BEACH|FL|33786|US|martinez.nat2@gmail.com|7739312179||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4833120130070353|10|2024|294|Vanessa  Arroyo |Vanessa |Arroyo ||LOGANVILLE|GA|30052|US|vannycu@aol.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4417122770920164|10|2023|024|Sean Burke|Sean|Burke||LITTLETON|CO|80129|US|burke_usa@comcast.net|3033788394||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4011540096816347|03|2024|638|Dale Walker|Dale|Walker||JACKSONVILLE|FL|32209|US|djw449@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4207670157698302|05|2025|228|Robert Brock-Murray|Robert|Brock-Murray||NEWARK|NJ|07107|US|brockmurrayr@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5108050148286185|07|2024|399|Kyle  Clarke |Kyle |Clarke ||BROOKLYN|NY|11210|US|kclarke1369@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4492101618877040|03|2024|695|Sandra Gillespie|Sandra|Gillespie||LIVINGSTON|TX|77399|US|sgillespiex5@yahoo.com|9075295262||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4207670195223980|06|2025|763|Jose Ortiz|Jose|Ortiz||LAND O LAKES|FL|34638|US|Harleyrosa27@yahoo.com|3478400804||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4275936505461546|09|2025|926|Petra Saldate|Petra|Saldate||LAKEWOOD|WA|98498|US|bmonoir@outlook.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4266841353268095|08|2027|163|Beverly Fagan|Beverly|Fagan||TAMPA|FL|33625|US|bfagan1@aol.com|9084057373||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5178057680280927|11|2022|410|James Murray|James|Murray||TAMPA|FL|33611|US|TalkToJimmyMurray@gmail.com|9195003401||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4000220753601869|03|2025|729|Swai Dhanoa|Swai|Dhanoa||WASHINGTON|DC|20001|US|Dhanoaswai@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4744810079344797|09|2024|124|christian rodriguez|christian|rodriguez||ELGIN|IL|60120|US|christian.rdrgz10@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4003448763722139|02|2025|245|Ruth Buffalo|Ruth|Buffalo||WOOD DALE|IL|60191|US|Rbuffalo@ameritech.net|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4461030710317174|01|2024|867|Mary Westlund|Mary|Westlund||WASHINGTON|DC|20002|US|mgwestlund20@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4430480070728668|04|2024|734|Ryan Pestcoe|Ryan|Pestcoe||DOUGLASSVILLE|PA|19518|US|ryan.pestcoe@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|378362710714005|08|2024|3248|Michael Plum|Michael|Plum||NEW PORT RICHEY|FL|34655|US|mplum@bhhsfloridaproperties.net|8632074966||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|372282356884001|05|2024|9925|Robert  Wonacott |Robert |Wonacott ||HORSESHOE BAY|TX|78657|US|wonacottbob@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|378335311621001|07|2024|9972|Ricardo Gianvito|Ricardo|Gianvito||NEW PORT RICHEY|FL|34652|US|rgianvito@hotmail.com|7276926128||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202457931937|08|2025|060|Dennis Schmittt|Dennis|Schmittt||TAMPA|FL|33626|US|dennis.jana@gmail.com|8139907138||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4833120067980657|04|2022|662|Nicole Gatteno|Nicole|Gatteno||ALEXANDRIA|VA|22301|US|NGatteno@comcast.net|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4347691120492863|11|2025|969|Becky Adelberg|Becky|Adelberg||CHICAGO|IL|60657|US|beckyadelberg@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4552250229883827|04|2025|451|TANISHA BAKER|TANISHA|BAKER||ALEXANDRIA|VA|22306|US|tiasbabyg@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4117735014986999|10|2023|092|Stephanie Lorenz|Stephanie|Lorenz||NEW YORK|NY|10025|US|slorenz@online.de|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4411042520188639|06|2022|791|Kavon Halstead|Kavon|Halstead||TAMPA|FL|33611|US|Kavonsolo96@gmail.com|4057193139||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4179030017545660|08|2025|172|Isabella Arcuri|Isabella|Arcuri||SEATTLE|WA|98103|US|isabella.arcuri@mail.mcgill.ca|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|379286132971001|10|2024|8373|Seth Bryant|Seth|Bryant||RESTON|VA|20191|US|sethbryant20@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5424322329252063|10|2024|759|Cesar Diaz|Cesar|Diaz||CHICAGO|IL|60638|US|cesard6199@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5156767987004442|10|2025|714|Romario Shaw|Romario|Shaw||ASBURY PARK|NJ|07712|US|Mmdan19053@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4867428021631012|01|2025|235|Katherine Sade|Katherine|Sade||PELHAM|NY|10803|US|katherine.sade1@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4552250351965624|10|2024|628|Darryl Badley|Darryl|Badley||CLINTON|MD|20735|US|darrylbadley@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4430400007891033|11|2023|793|Kaylee Deutsch|Kaylee|Deutsch||||162 Lowber R|US|kayleedeutsch16@icloud.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|371755817383003|06|2026|8484|Kim Snow |Kim|Snow ||TAMPA|FL|33624|US|Ksnow1973@gmail.com|8139563449||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4001230011286915|04|2023|917|Darnley Green|Darnley|Green||WALDORF|MD|20601|US|drgreen8301@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147181402584191|08|2025|842|Avinash Sowani|Avinash|Sowani||VALRICO|FL|33596|US|Avisquash80@yahoo.com|8455977357||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202456195443|07|2025|577|Devpriyan Maniarasu|Devpriyan|Maniarasu||PHILADELPHIA|PA|19106|US|davemaniarasu@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4701320320769421|08|2022|252|Reagan Mady|Reagan|Mady||IOWA CITY|IA|52242|US|reagan-mady@uiowa.edu|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|379746189558001|10|2024|0333|Matt McClintock|Matt|McClintock||TAMPA|FL|33607|US|matthew.j.mcclintock@gmail.com|8137318700||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5577290006881238|02|2024|732|martin tagliavini|martin|tagliavini||MORGAN HILL|CA|95037|US|martin@supertechperformance.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4207670191163354|12|2024|843|Mike Sgarlata|Mike|Sgarlata||NEW ROCHELLE|NY|10801|US|italianbambino21@aol.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400661340853578|11|2023|827|Rebecca D Gilovich|Rebecca|Gilovich||BROOKLYN|NY|11222|US|becca.gilovich@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4011600012146524|02|2023|350|Tyler Grabowski|Tyler|Grabowski||PALM BAY|FL|32907|US|tgrabowski1234@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4266841628390856|04|2024|353|Michelle Muneton|Michelle|Muneton||TAMPA|FL|33624|US|Michee.muneton@gmail.com|8134644521||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202359581079|08|2024|929|John Gallardo|John|Gallardo||MARS|PA|16046|US|jgallardo8690@yahoo.com|6308428602||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4060955529350062|03|2024|748|Jonathan Brunn|Jonathan|Brunn||VIRGINIA BEACH|VA|23452|US|jtbrunn@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5424181362861234|10|2024|424|Lorenzo Mengoli|Lorenzo|Mengoli||NEW YORK|NY|10023|US|Mengoli.lorenzo@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4049236000035662|02|2023|083|Anna Romanek|Anna|Romanek||ENGLISHTOWN|NJ|07726|US|victoriaromanek@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5129925082734719|03|2025|273|Denise  Pischel |Denise |Pischel ||HOWELL|NJ|07731|US|Pischel5@optonline.net|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4266902055275216|06|2027|392|Lesli Dahlke|Lesli|Dahlke||LUTZ|FL|33548|US|dlesli0812@gmail.com|8133526016||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5491128520598909|10|2023|724|william bissett|william|bissett||LINDENHURST|NY|11757|US|bissettwj@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4262076128874745|03|2024|844|Andrew Stevenson|Andrew|Stevenson||TAMPA|FL|33602|US|ahstevenson96@gmail.com|8139438126||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5155990012153791|02|2025|698|Rebekah  Polyzos|Rebekah |Polyzos||CHARLOTTE|NC|28205|US|Rebekah.polyzos@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|379308165802000|04|2026|0567|Jereme Wheeler|Jereme|Wheeler||NEW PORT RICHEY|FL|34653|US|jerememw@yahoo.com|7279454573||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147098772382446|12|2024|893|Milo Miller|Milo|Miller||MYAKKA CITY|FL|34251|US|milomiller082@gmail.com|9415392120||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4833160228465065|04|2026|254|Edgar Moo|Edgar|Moo||LAS VEGAS|NV|89103|US|edgar94moo@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5312600133906379|07|2024|311|Juan Martinez|Juan|Martinez||PORT RICHEY|FL|34668|US|juancamartzacc@gmail.com|7876077466||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5275170003464391|03|2024|326|Anabel Edwards|Anabel|Edwards||PLANT CITY|FL|33565|US|anabeledwards10@gmail.com|8135202726||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4430473092501395|06|2022|567|Troy Thresher|Troy|Thresher||CHARLOTTE|NC|28215|US|troy.thresher@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|379746608013000|08|2025|4807|Eric Rothschild|Eric|Rothschild||ARLINGTON|VA|22201|US|Eric.rothschild90@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4640182132249164|10|2023|997|Ryan Matthews|Ryan|Matthews||VALRICO|FL|33594|US|Ryan.m.matthews@gmail.com|4072127761||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4465420597654631|02|2024|480|Ann McIntyre|Ann|McIntyre||||22015-1617|US|somebodyshoutedmcintyre@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4744721034245310|03|2024|780|Justin Guzzardo|Justin|Guzzardo||FAIRFAX|VA|22031|US|justin.m.guzzardo@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4773519903835839|08|2022|862|Joshua LaGraff|Joshua|LaGraff||||34604-0746|US|josh19696@gmail.com|7279024296||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4000220572890453|12|2022|114|Kevin Wyman|Kevin|Wyman||VIRGINIA BEACH|VA|23454|US|kwyman86@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4429392003639388|04|2024|045|Eric Oswald|Eric|Oswald||WENTZVILLE|MO|63385|US|ericoswald45@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202319555593|08|2025|367|Paul Helfert|Paul|Helfert||HOUSTON|TX|77007|US|P_helfert@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5129915621189616|09|2024|639|Sean Himes|Sean|Himes||CLEMENTON|NJ|08021|US|qsu2beast@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|379766668921009|06|2023|5327|Eden  Janczura |Eden |Janczura ||CHICAGO|IL|60610|US|Edennissani@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5178058383974113|12|2025|900|Santiago Gutierrez|Santiago|Gutierrez||ELIZABETH|NJ|07201|US|santiago.gutierrez0815@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4124510145443934|03|2026|603|Isaac Rosenfeld|Isaac|Rosenfeld||MONSEY|NY|10952|US|rosenfeldisaac@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4744780139165450|06|2024|695|Barbara Scheid|Barbara|Scheid||FREDERICKSBURG|VA|22408|US|barbarascheid11@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202478857806|09|2027|448|Emerson Souza|Emerson|Souza||WASHINGTON|DC|20011|US|emgsso88@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4120469700521838|02|2024|344|Hannah Arnold |Hannah|Arnold ||SARATOGA SPRINGS|UT|84045|US|hannaharnold1313@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4000220189217587|10|2022|157|Brenda Tapia|Brenda|Tapia||ARLINGTON|VA|22204|US|Tapbren@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5524333930739454|12|2024|347|Charles Bridger|Charles|Bridger||CHARLOTTE|NC|28205|US|Mckwhalen@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4232230275157381|03|2025|912|Destinie Patton|Destinie|Patton||BATON ROUGE|LA|70812|US|destiniepatton@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4744760198165856|10|2024|252|John K Owens|John K|Owens||SAINT PETERSBURG|FL|33702|US|Jkowens17@gmail.com|7276373797||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5211050004652201|07|2025|582|Sal Guerrero|Sal|Guerrero||HESPERIA|CA|92345|US|Salguerrero0521@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4388576131468822|04|2024|411|barak romanek|barak|romanek||ARLINGTON|VA|22207|US|broc.romanek@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4003447972318101|05|2025|795|Jonathon Hatzistefanou|Jonathon|Hatzistefanou||SAINT PETERSBURG|FL|33705|US|JonathonHatz@gmail.com|7726471958||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4479931008819740|04|2022|123|Joann Flores|Joann|Flores||WILLOWBROOK|IL|60527|US|floresjoann@me.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5152412102504877|09|2024|725|Brian Lumsden|Brian|Lumsden||||76022-7861|US|brianlumsden@msn.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147098526744800|09|2022|098|Steven Farray|Steven|Farray||BLYTHEWOOD|SC|29016|US|Steven.farray@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4833120098192249|12|2024|005|MELISSA STEPHENS|MELISSA|STEPHENS||LUTZ|FL|33549|US|mstephens1679@gmail.com|4073191284||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400665658812258|09|2023|825|Michael  Miller |Michael |Miller ||TAMPA|FL|33634|US|Mikemilleriu@yahoo.com|8132986295||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4427910031150797|12|2023|671|Edwin Morton|Edwin|Morton||NORRISTOWN|PA|19403|US|eddiem2172@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5262194121320371|02|2026|029|Nelson Checo|Nelson|Checo||BRONX|NY|10463|US|Nelsonjscheco@outlook.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5524860519110202|04|2024|347|Debra Patch|Debra|Patch||HAVERTOWN|PA|19083|US|deedee11161@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5466322183639230|03|2024|834|Stephanie Uhl|Stephanie|Uhl||CHICAGO|IL|60657|US|sruhl123@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5178059532639946|03|2023|040|Timothy Phoenix|Timothy|Phoenix||MURPHYSBORO|IL|62966|US|Phoenixfootball20@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5178058768121835|06|2023|393|Corey Courtney|Corey|Courtney||FORT WORTH|TX|76179|US|cnote1914@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4744760075954141|11|2023|929|Lacey Kleese|Lacey|Kleese||TAMPA|FL|33624|US|mkyprnss@gmail.com|8133992011||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147400257136042|02|2024|526|Erin Hudelson|Erin|Hudelson||HANNIBAL|MO|63401|US|vballchicky90210@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4839504211767819|06|2022|033|Elizabeth Larrabee|Elizabeth|Larrabee||ALBANY|NY|12203|US|emlar1@nycap.rr.com|5188590803||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4207670211633097|05|2026|642|Diana  Moncada|Diana |Moncada||MASPETH|NY|11378|US|Adrianaid28@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4100390135528855|12|2022|100|Yan Popovych|Yan|Popovych||OLD BRIDGE|NJ|08857|US|Yan.popovych@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4653459523207629|04|2024|369|John M Leaman|John M|Leaman||LITTLETON|CO|80122|US|m.leaman@comcast.net|7202529277||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|372284055313001|08|2025|9676|Ricardo Menendez |Ricardo|Menendez ||HERNDON|VA|20170|US|Ricarmz@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202470754001|01|2026|779|David Israel|David|Israel||NEW YORK|NY|10025|US|israeldavid1@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4306515022632566|09|2023|801|Lonnie Brock|Lonnie|Brock||LAKELAND|FL|33803|US|brocklonnie@gmail.com|8134265816||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4100390201083934|01|2023|955|Michelle Tobin|Michelle|Tobin||||22039-2537|US|tobin53@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4100390176829105|12|2023|483|Thomas Tirkel|Thomas|Tirkel||CHICAGO|IL|60613|US|ttirkel@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4427562011466360|03|2025|183|Joseph Berenji|Joseph|Berenji||HOUSTON|TX|77080|US|Joseph.berenji@outlook.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202419573132|03|2024|573|Kristin Bassuener|Kristin|Bassuener||DENVER|CO|80207|US|kbassuener@denverartmuseum.org|3038853012||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4100390168453567|05|2023|580|Carolyn Olschner|Carolyn|Olschner||LITTLETON|CO|80130|US|pandc.olschner@gmail.com|3038401199||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4165981508564287|07|2026|403|Sasha Serfaty|Sasha|Serfaty||||H2X 3p8|US|Sasha.serfaty@mail.mcgill.ca|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5348750008858300|01|2026|183|Michelle  Avalos|Michelle |Avalos||BALCH SPRINGS|TX|75180|US|Mi-avalos@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4839504354619116|04|2022|909|Tarah  Golzar|Tarah |Golzar||GREAT FALLS|VA|22066|US|neghin.kharrazi@flashtalking.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4833120128150852|08|2024|683|Brent Grahovak|Brent|Grahovak||PORT RICHEY|FL|34668|US|Brentg789@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4000222257894669|03|2025|895|Robin Wallace|Robin|Wallace||VIRGINIA BEACH|VA|23455|US|Wewallaces88@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4744760276158690|11|2024|794|Jake  lassiter|Jake |lassiter||TAMPA|FL|33624|US|chapmandavidl@gmail.com|8133688950||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202376833891|11|2023|481|Lindsay Watkins|Lindsay|Watkins||JACKSONVILLE|FL|32226|US|lindsayawatkins@yahoo.com|3213319141||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5178057593998177|10|2022|746|Michael  Ortiz |Michael |Ortiz ||SAINT CLOUD|FL|34769|US|Jjasonrx7@aol.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202436876674|07|2024|461|Shane Newlands|Shane|Newlands||TAMPA|FL|33611|US|Snewlands@ymail.com|4802920136||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202378626707|11|2023|768|Shadmn Minir|Shadmn|Minir||MOUNT HOLLY|NJ|08060|US|sminir@chicagobooth.edu|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4744760403322698|07|2024|148|Valentine Jennings|Valentine|Jennings||TAMPA|FL|33629|US|vgriff24@yahoo.com|8134536246||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|379260508961003|07|2024|6462|Steven Bernstein|Steven|Bernstein||NEW YORK|NY|10025|US|srulisb@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4451024000967766|07|2023|445|Cassie Roberts|Cassie|Roberts||ARLINGTON|VA|22203|US|croberts@bowmanwilliams.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202134322823|01|2027|465|Alma Ripps|Alma|Ripps||ALEXANDRIA|VA|22301|US|Alma.ripps@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147400271476945|02|2026|334|Michael Shimek|Michael|Shimek||NEWPORT NEWS|VA|23605|US|Michael.shimek@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4430400027892979|07|2022|830|Jimmy Shaffer|Jimmy|Shaffer||YOUNGWOOD|PA|15697|US|shaffer76@live.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5524334162898067|11|2025|977|isreal silberstein|isreal|silberstein||BROOKLYN|NY|11211|US|6831664@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5424181445640142|05|2024|697|Michael Case|Michael|Case||KNOXVILLE|TN|37934|US|Mwcase07@gmail.com|6093395554||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202426359327|05|2024|427|Jessica Riemann|Jessica|Riemann||OLD BETHPAGE|NY|11804|US|jriemann312@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202404617811|11|2023|829|Melanie Graff|Melanie|Graff||NEW CITY|NY|10956|US|melanie.r.graff@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4270825026927801|11|2024|094|Katie McCarey|Katie|McCarey||TAMPA|FL|33606|US|katiemccarey@gmail.com|8134951783||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4427568022404126|10|2025|001|Loiua Basuf|Loiua|Basuf||PATERSON|NJ|07503|US|Loiuabasuf@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147180295255430|05|2025|434|Timothy Hodges|Timothy|Hodges||SIERRA VISTA|AZ|85636|US|GSPChaser247@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4552250243005803|05|2024|773|Wendie Cobb|Wendie|Cobb||WESLEY CHAPEL|FL|33544|US|wendiecobb321@gmail.com|8139677429||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147098834168189|05|2024|482|Alexandria Ascioti|Alexandria|Ascioti||TAMPA|FL|33611|US|alexandria.ascioti@gmail.com|18605397142||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4535060166412049|12|2025|890|Autumn Branscome|Autumn|Branscome||BANDERA|TX|78003|US|autumnbranscome0408@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5178057878043384|12|2023|435|Kathryn Maselli|Kathryn|Maselli||WASHINGTON|DC|20002|US|kamaselli@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202416167656|02|2024|935|Anthony Chang|Anthony|Chang||TAMPA|FL|33613|US|altamont93@gmail.com|7275055142||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5175760003519052|12|2023|935|Kyle Jameson|Kyle|Jameson||TAFT|CA|93268|US|Kylejameson30@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202484538820|04|2026|897|Kristen Lawlor|Kristen|Lawlor||PENNINGTON|NJ|08534|US|kl2765@columbia.edu|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4388540077105863|12|2025|205|Christy White|Christy|White||BERLIN|MD|21811|US|usmcwhites@gmail.com|3309905618||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5269290062458783|06|2024|678|Jennifer Escobar|Jennifer|Escobar||AUSTIN|TX|78748|US|Jennifer@escobartax.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147099307722627|06|2025|862|davis givens|davis|givens||HUTCHINSON|KS|67501|US|givensdavis@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4701320301309049|12|2023|115|Colin Vongsa|Colin|Vongsa||MARYSVILLE|WA|98270|US|Colinvongsa@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202262700469|06|2022|274|Julie Pokorny|Julie|Pokorny||LEMONT|IL|60439|US|sungoddess13@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5108050142062277|04|2025|724|Daniel Gonzalez|Daniel|Gonzalez||ANNANDALE|VA|22003|US|fatdog.daniel@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5178059202750643|07|2022|251|John Wooten|John|Wooten||GENEVA|IL|60134|US|jdwooten@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4232230238617489|05|2025|673|Isaac  Morales-Hernandez|Isaac |Morales-Hernandez||TAMPA|FL|33605|US|hernandez.i0306@gmail.com|8134587060||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4270880084226760|01|2025|769|VIRGINIA Matuszak|VIRGINIA|Matuszak||ZEPHYRHILLS|FL|33541|US|virginiamatuszak@gmail.com|8133779489||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202497045433|07|2026|176|Kyle Bagwell|Kyle|Bagwell||PINELLAS PARK|FL|33782|US|Kylebagwell303@gmail.com|7203003344||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5135474601214525|03|2024|580|Alexander Strickland|Alexander|Strickland||MEDINA|NY|14103|US|alexanderstrickland0900@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5178059441688356|11|2024|047|Pam Weeks|Pam|Weeks||CLEARWATER|FL|33764|US|pweeks448@gmail.com|8657550916||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147181092627847|03|2025|772|Sheila Jordan|Sheila|Jordan||LITTLETON|CO|80127|US|sheila.jordan83@gmail.com|7202701907||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400662022519347|11|2023|094|LEO REICHARDT|LEO|REICHARDT||TAMPA|FL|33604|US|leo.reichardt@yahoo.com|8137702302||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4207670253440963|02|2026|064|Yineiry Duran Leonardo |Yineiry|Duran Leonardo ||PERTH AMBOY|NJ|08861|US|Model0725@live.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5573370002083338|04|2022|569|Dana Trifunovic |Dana|Trifunovic ||SAINT PETERSBURG|FL|33707|US|Trifunovicdana@yahoo.com|7273485210||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5524338972653372|09|2024|310|Linas Stankevicius|Linas|Stankevicius||MIDDLE VILLAGE|NY|11379|US|linas.stankevicius1@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400665605787702|11|2024|794|Matthew|MATTHEW|BULMAN||WEST PALM BEACH|FL|33412|US|mwbulman@gmail.com|5616035766||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4185050023346483|12|2022|510|Craig Harry|Craig|Harry||AURORA|CO|80015|US|crgharry@q.com|7202993411||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147098475916318|03|2023|145|Russell Beyer|Russell|Beyer||ARLINGTON|VA|22204|US|russelldbeyer@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202459369094|11|2025|250|Kathy Pedigo|Kathy|Pedigo||RIVER FOREST|IL|60305|US|kathypedigo@ymail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4465421093154712|09|2023|225|Judy Egan|Judy|Egan||LITTLETON|CO|80125|US|djdegan@icloud.com|7202342709||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4000222213444153|12|2024|779|Ernesto Rosales|Ernesto|Rosales||ASHBURN|VA|20148|US|Ernesto_rosales@icloud.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5287495003443707|08|2024|042|Cody Wycoff|Cody|Wycoff||TACOMA|WA|98422|US|codyrw253@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5424181305006418|01|2025|013|Frank Cozzi|Frank|Cozzi||CARY|IL|60013|US|fscozzi1@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4552250373944698|08|2025|576|Alice Harris|Alice|Harris||AUSTIN|TX|78749|US|aeharris721@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4060955956126316|05|2023|267|Stig Frankrig |Stig|Frankrig ||VIRGINIA BEACH|VA|23452|US|frankrig@live.no|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5424181420585759|05|2024|421|Mace Duncan-Ohleyer |Mace|Duncan-Ohleyer ||BROOKLYN|NY|11231|US|macedohleyer@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5178058901133267|11|2024|414|Stevie Fisher|Stevie|Fisher||ARLINGTON|VA|22207|US|STEFISHE@GMAIL.COM|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4833120087434172|11|2024|388|Jennie Dawson|Jennie|Dawson||DAVISON|MI|48423|US|sbruff01@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4117744067831367|03|2023|251|ethan iadonisi|ethan|iadonisi||BRICK|NJ|08723|US|iadonisiethan@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4347690223087208|03|2025|585|Karina Kennedy|Karina|Kennedy||MIAMI|FL|33183|US|kmbalda@yahoo.com|7865530604||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4110791607084269|07|2023|443|Karly Stine|Karly|Stine||WAYNE|PA|19087|US|karlystine@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4403932768331331|12|2024|414|Gary  Nembhard |Gary |Nembhard ||FREDERICKSBURG|VA|22405|US|garynem@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202242956819|01|2025|985|Avneesh Kohli|Avneesh|Kohli||BROOKLYN|NY|11201|US|avneeshk91@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4790111101548957|11|2024|686|Jayne Wakeman|Jayne|Wakeman||OXFORD|FL|34484|US|Idtwin1@gmail.com|3527899729||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5141490400530970|10|2022|209|Colin Gillispie|Colin|Gillispie||CHARDON|OH|44024|US|colingilly27@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5424180688138293|03|2024|075|Doug McCleaf |Doug|McCleaf ||FALLS CHURCH|VA|22042|US|Doug@marshallroofing.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4427565520930842|02|2026|061|Thomas Wiltz|Thomas|Wiltz||NEW ORLEANS|LA|70127|US|Tw29277@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4240180015878186|06|2024|057|Benjamin Abid|Benjamin|Abid||GRAND RAPIDS|MI|49503|US|benabid97@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4429392003032212|10|2023|443|Spring Johnson|Spring|Johnson||||63395|US|Springgant@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202294548993|02|2025|082|Ryan Handley|Ryan|Handley||ORLANDO|FL|32869|US|Ryanhandley@yahoo.com|4074689702||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147371085131952|08|2024|553|Linda Lambiase|Linda|Lambiase||RINGWOOD|NJ|07456|US|Llamb1961@gmail.com|8622282334||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4744760196327573|08|2024|965|Courtney Beason|Courtney|Beason||BROOKSVILLE|FL|34604|US|xocourtneyrosexo@yahoo.com|7275144894||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4207670234432725|11|2024|537|Melvin Maniarasu|Melvin|Maniarasu||GARNERVILLE|NY|10923|US|melguy16@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4117704077227584|03|2024|022|Erica Lynn Stakutis|Erica Lynn|Stakutis||EAST WALPOLE|MA|02032|US|ericastakutis@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4430473083970302|06|2023|221|Tiffany Ragan|Tiffany|Ragan||PALM HARBOR|FL|34685|US|ragantiffany@gmail.com|8159199113||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|379268275684005|05|2026|7187|James W|James|W||TAMPA|FL|33604|US|p00n3dj002@yahoo.com|7274631201||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5178058241363392|07|2024|552|Justin Mays|Justin|Mays||KNOXVILLE|TN|37920|US|themaysman@gmail.com|8653339628||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4258281909485432|10|2023|079|Deborah  Webster |Deborah |Webster ||LAND O LAKES|FL|34637|US|Dewmd@hotmail.com|4438488054||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202472723202|12|2025|786|Alex Rudenko|Alex|Rudenko||ROSHARON|TX|77583|US|arudenko1014@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5320309113286808|08|2025|063|Jerry Martin|Jerry|Martin||GIDEON|MO|63848|US|jerrymartin3211@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4465400379945969|09|2024|964|Paul Pingree|Paul|Pingree||SARASOTA|FL|34243|US|p.connor.pingree@gmail.com|4358817473||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147099752885283|04|2025|882|Jayne Busch|Jayne|Busch||LITTLETON|CO|80125|US|jaynebusch@aol.com|3032294233||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5312600076328557|03|2022|583|richard boisvert|richard|boisvert||LARGO|FL|33773|US|kodiakrb@msn.com|7276471480||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4306134090576877|11|2022|298|Derrick  McCullers |Derrick |McCullers ||ALEXANDRIA|VA|22311|US|thebestderrick@aol.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147099230427781|11|2023|042|Brittany  Morelli|Brittany |Morelli||SPRING HILL|FL|34608|US|Gigglychika425@yahoo.com|7278592890||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400660270370686|10|2022|742|Quaron Potts|Quaron|Potts||CHARLOTTE|NC|28269|US|qpotts05@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5424181372339189|08|2025|559|Geoff  Katz |Geoff |Katz ||TAMPA|FL|33634|US|geoff.katz@yahoo.com|8136293074||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4000220007147305|09|2022|659|Junius Jones|Junius|Jones||LARGO|FL|33771|US|juniuslee@gmail.com|17276571523||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4266841646159630|09|2024|471|John Calahatian|John|Calahatian||WESLEY CHAPEL|FL|33545|US|johnc1458@gmail.com|8135001817||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4269380129079574|10|2023|013|RONAK VYAS|RONAK|VYAS||AUSTIN|TX|78747|US|ronak.ronaksmith.vyas@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4482512001785768|07|2025|386|BJ Johnson |BJ|Johnson ||WRIGHTSVILLE|PA|17368|US|bjjohnson85@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4305722349084957|09|2022|710|Barbara Peacock|Barbara|Peacock||BETHESDA|MD|20814|US|barbara.l.peacock@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4313072295804598|05|2024|701|Jennifer  Meyers|Jennifer |Meyers||LITTLETON|CO|80130|US|Jenn.meyers05@gmail.com|7572773314||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5491139329886551|06|2023|470|Ella Mae Mills|Ella Mae|Mills||LITTLETON|CO|80126|US|ellamaemills@gmail.com|3036191264||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202490169743|05|2026|937|Sara Going|Sara|Going||ELKHORN|NE|68022|US|scizek3@hotmail.com|4028713421||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5170630002152665|10|2023|412|Chase Goff|Chase|Goff||ANNAPOLIS|MD|21401|US|Chasetgoff@gmail.com|4439942066||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147099729787802|01|2023|973|True Nicolson|True|Nicolson||WASHINGTON|DC|20009|US|trueeastwood@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4403931142468249|06|2025|992|Shabray Wilkerson Herron |Shabray|Wilkerson Herron ||DAYTON|OH|45406|US|Shabrayherron@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4266385032834778|03|2023|976|Robert Sheppard|Robert|Sheppard||ARLINGTON|VA|22205|US|Bobsheppard77@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4599540143862930|10|2024|246|Daryn Calvin|Daryn|Calvin||WESTFIELD|MA|01085|US|daryncalvin@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|379278569902005|11|2024|1796|Luis Fernandez |Luis|Fernandez ||DULUTH|GA|30097|US|yo@mojitosbistro.com|6784717129||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4388576145043884|07|2026|678|Bernadine  Tarasoff|Bernadine |Tarasoff||PARKER|CO|80134|US|Btara@msn.com|3035895576||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4003448335213880|05|2023|196|Monica Jenkins|Monica|Jenkins||EDGEWATER|MD|21037|US|Mdj4bsu@aol.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5148875080700914|03|2024|722|Leslie O'Connor|Leslie|O'Connor||EVERETT|WA|98208|US|cpaoconnor@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4003447802205296|07|2023|742|Claire Herring|Claire|Herring||BEL AIR|MD|21014|US|Bruxy83@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202468482029|11|2025|621|Lin St Clair|Lin|St Clair||BURKE|VA|22015|US|linden.stclair@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400666239071729|11|2023|116|Valerie  Rauscher |Valerie |Rauscher ||LITTLETON|CO|80126|US|Vlr0011@yahoo.com|7209827361||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4190004351321777|10|2025|083|Cody Jameson|Cody|Jameson||MEMPHIS|TN|38117|US|christopher.jameson@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4403931830861267|08|2024|372|Don Green|Don|Green||WOODBRIDGE|VA|22191|US|dgreen0722@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400669180450249|10|2025|824|Jeyson Gonzalez|Jeyson|Gonzalez||WAYNE|NJ|07470|US|Jeyson45@aol.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|379261513001009|01|2024|5496|Joseph Potter|Joseph|Potter||BRANDON|FL|33511|US|tpafljoe@gmail.com|8134229135||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400661707558695|03|2023|715|ANTON TOKAREV|ANTON|TOKAREV||KIRKLAND|WA|98034|US|antonio.tokareff@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4430473023019079|02|2023|040|LaQualya Best|LaQualya|Best||CAPITOL HEIGHTS|MD|20743|US|lbest1201@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4495015012839835|01|2025|013|Samantha Swartz|Samantha|Swartz||LAND O LAKES|FL|34638|US|saswartz515@gmail.com|6072599842||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4833120074513269|08|2024|651|John Fleres|John|Fleres||PORT RICHEY|FL|34668|US|johnfleres@hotmail.com|7273641871||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5117862032222863|08|2023|063|jake watson|jake|watson||SAFETY HARBOR|FL|34695|US|watsonjake2003@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5511045613208350|08|2022|551|Kelly Crutcher|Kelly|Crutcher||ELIZABETHTOWN|KY|42701|US|reggie.latham@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4403931795492553|08|2025|488|Tityana Robinson|Tityana|Robinson||ALEXANDRIA|VA|22302|US|tityanakanese@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5524331679812193|06|2023|260|Peter Fenske|Peter|Fenske||ENGLISHTOWN|NJ|07726|US|petefenske@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4400666633484510|03|2025|231|Kyrylo Holovach|Kyrylo|Holovach||BROOKLYN|NY|11235|US|Holovach.kyrylo@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4602462001343967|01|2024|245|Aj McCauley|Aj|McCauley||ROCKVALE|TN|37153|US|Ajracer97@comcast.net|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202490282033|05|2026|241|Misty  Bittner |Misty |Bittner ||LAKELAND|FL|33801|US|mdbeeman1@gmail.com|8633267771||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5275210007183694|03|2023|426|Simbi Ogbara|Simbi|Ogbara||ORLAND PARK|IL|60467|US|simbio18@gmail.con|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202463202372|09|2025|323|James Oddy|James|Oddy||||2091|US|Jdo1230@rit.edu|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4270829051943345|10|2024|770|Heather Zanoff|Heather|Zanoff||PARKER|CO|80134|US|hzanoff@yahoo.com|7203314953||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4207670207248298|08|2024|566|Daniela McCarthy|Daniela|McCarthy||FAR ROCKAWAY|NY|11691|US|Daniela0106n@gmail.com|6316819628||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4701320325641781|08|2024|422|Desiree Franz|Desiree|Franz||RIDGEFIELD|WA|98642|US|Desfranz1223@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4143540200045016|03|2024|945|Seth Dibbert|Seth|Dibbert||IMPERIAL|MO|63052|US|dibbertseth@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4661880051593595|02|2024|744|Kathryn Rhyne|Kathryn|Rhyne||BELMONT|NC|28012|US|kathrhyne@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147097493801940|04|2024|087|Christopher Andall|Christopher|Andall||CAPITOL HEIGHTS|MD|20743|US|christopherandall@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4388540068673226|11|2023|245|Richard Reaser|Richard|Reaser||READING|PA|19608|US|rreaser@comcast.net|6107750941||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5524339014525776|04|2024|186|David Vilk|David|Vilk||JACKSONVILLE|FL|32246|US|david.vilk155@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4430450044958568|07|2023|528|Matteo Coco|Matteo|Coco||CHESTERFIELD|MO|63005|US|cocomatteo135@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4492539306480660|01|2024|604|JOHN BOBIAN|JOHN|BOBIAN||LODI|CA|95240|US|BOBIANJ209@OUTLOOK.COM|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|379300865331000|12|2025|1329|Graciela Granda|Graciela|Granda||FLUSHING|NY|11358|US|gracielagranda2@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147098784275349|07|2023|635|Paul Kang|Paul|Kang||ASTORIA|NY|11103|US|Request.paul@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4744770071230610|03|2024|545|Brittanie Pickenheim|Brittanie|Pickenheim||CHICAGO|IL|60654|US|Bpickenh@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5178059993025569|10|2023|635|Joshua  Westfall|Joshua |Westfall||BROOKSVILLE|FL|34602|US|jwestfall5521@yahoo.com|3525843452||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4586430190810708|09|2025|896|Sloane Salkey|Sloane|Salkey||WASHINGTON|DC|20002|US|Ameliasalkey@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4147202441195201|08|2024|495|Thomas DelZenero|Thomas|DelZenero||WILLOWBROOK|IL|60527|US|tdelzene@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|5362256990952755|12|2023|304|Allison Tom-Yunger|Allison|Tom-Yunger||NEW YORK|NY|10001|US|allisontomyunger@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>[hqcheck.ru]|Live|4792131259834437|02|2025|732|William Penta|William|Penta||DERRY|NH|03038|US|Jdm4life603@outlook.com|||US</t>
   </si>
 </sst>
 </file>
@@ -1675,9 +2545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121C4AD0-303C-6C44-B6E9-92FE110E6D98}">
-  <dimension ref="A1:A427"/>
+  <dimension ref="A1:A734"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A744"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1713,1502 +2585,1502 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>123</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>154</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>178</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>181</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>207</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>211</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>221</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>222</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>224</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>233</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>239</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>246</v>
+        <v>397</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>251</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>260</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>262</v>
+        <v>400</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>267</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>272</v>
+        <v>402</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>304</v>
+        <v>403</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>343</v>
+        <v>405</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
@@ -3814,6 +4686,1541 @@
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
